--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_49.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_49.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,646 +488,664 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_37</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1714285714285714</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:maj', 'F:min']]</t>
-        </is>
+          <t>isophonics_229</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_78</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1421370967741936</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
+          <t>[['A:maj/9', 'B', 'E']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(1.54, 6.68)]</t>
+          <t>[['D', 'E', 'A']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(45.58, 49.6)]</t>
+          <t>[('0:00:22.599387', '0:00:29.576984')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:19.731723', '0:00:23.783605')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_196</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_216</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.07668898356664638</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['D', 'G/5', 'D']]</t>
-        </is>
+          <t>isophonics_269</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_82</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1652173913043478</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>[['A:min', 'D:min', 'A:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(19.708503, 25.501882)]</t>
+          <t>[['G:min', 'C:min/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(28.009637, 33.826235)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:35.888000', '0:00:38.359000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:00.500000', '0:00:03.900000')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_73</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.3726708074534161</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
-        </is>
+          <t>isophonics_199</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_108</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.05902777777777778</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['F:maj/A', 'C:7', 'F:maj', 'F:min']]</t>
+          <t>[['A', 'D', 'G']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(66.92, 70.3)]</t>
+          <t>[['E', 'A', 'D']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(22.32, 26.18)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:03.028463', '0:00:06.708825')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:20.776621', '0:00:32.769727')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_139</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1806020066889632</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['D#:min/A#', 'A#:7', 'D#:min']]</t>
-        </is>
+          <t>schubert-winterreise_156</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_114</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2015810276679842</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>[['F#:maj', 'C#:maj', 'F#:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(116.66, 121.42)]</t>
+          <t>[['E', 'B', 'E']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(3.0, 5.28)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:00:50.160000', '0:00:52.820000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:32.233898', '0:00:36.959159')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr">
         <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
-        </is>
+          <t>isophonics_296</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_216</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1110277569392348</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['D:maj', 'G:maj', 'C:maj', 'G:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(1.9, 5.58)]</t>
+          <t>[['E', 'A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(41.3, 43.48)]</t>
+          <t>[('0:00:13.822000', '0:00:20.852000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:25.850181', '0:00:33.826235')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_150</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_136</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1155327342747112</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['G', 'G', 'D'], ['C', 'D', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_196</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_132</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3794871794871795</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['A', 'A', 'E/4'], ['D/5', 'E/4', 'A']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(7.968347, 20.332973), (55.151295, 60.155195)]</t>
+          <t>[['C:7', 'F:maj', 'C:7/A#', 'F:maj/A', 'C:7/A#', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(30.47, 33.309), (5.544, 8.638)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:00:35.460000', '0:00:50.440000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:01:12.500000', '0:01:33.840000')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jaah_25</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.05375773651635721</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_15</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3833333333333333</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb', 'F:7', 'Bb']]</t>
+          <t>[['D:maj/F#', 'G:maj', 'D:maj', 'A:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(66.98, 77.38)]</t>
+          <t>[['C', 'F', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(48.25, 53.91)]</t>
+          <t>[('0:00:58.080000', '0:01:09.440000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:01:10.203514', '0:01:32.970680')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_9</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.421195652173913</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(1.98, 6.3)]</t>
+          <t>[['C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(46.22, 48.94)]</t>
+          <t>[('0:03:46.020000', '0:04:01.060000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
+          <t>[('0:00:21.080000', '0:00:24.960000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_194</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2363636363636364</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4017857142857143</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7/D', 'C:min/D#'], ['C:min', 'G:maj/B', 'C:min']]</t>
+          <t>[['D:maj', 'A:7', 'D:maj'], ['D:maj/F#', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(8.46, 13.46), (0.24, 5.08)]</t>
+          <t>[['F:maj/C', 'C:7', 'F:maj'], ['F:maj/A', 'A#:maj', 'F:maj/C']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(2.0, 4.32), (16.24, 19.08)]</t>
+          <t>[('0:00:00.580000', '0:00:09.400000'), ('0:00:58.080000', '0:01:05.660000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:01:03.100000', '0:01:04.320000'), ('0:01:01.480000', '0:01:03.580000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_151</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_182</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5142857142857142</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']]</t>
+          <t>[['F:maj/A', 'A#:maj', 'F:maj/C']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(124.92, 129.32)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(117.54, 122.7)]</t>
+          <t>[('0:01:01.480000', '0:01:03.580000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:02:34.020000', '0:02:39.240000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_219</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>jaah_39</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1569115815691158</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['A', 'D:min', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_199</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['Eb', 'Ab:min', 'Ab:min']]</t>
+          <t>[['C#:(3,5)', 'F:maj/A', 'A#:maj', 'F:maj/C', 'C:7', 'F:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(75.058526, 99.567188)]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(6.59, 9.13)]</t>
+          <t>[('0:01:00.620000', '0:01:06.360000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:2EqlS6tkEnglzr7tkKAAYD</t>
+          <t>[('0:01:01.260000', '0:01:07.540000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_193</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_287</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.08973214285714286</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['Bb', 'Eb', 'Ab']]</t>
-        </is>
+          <t>schubert-winterreise_19</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_71</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'D']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(10.286, 15.006)]</t>
+          <t>[['C:min', 'G:7/D', 'C:min', 'G:7/D', 'C:min', 'G:7', 'C:min', 'C:min', 'G:7', 'C:min', 'C:min', 'C:min/G', 'G:7', 'C:(3,5,b7,b9)/E', 'F:min', 'C:maj/G', 'G:7', 'C:min', 'G:7/D', 'C:min', 'G:7/D', 'C:min', 'D#:maj/A#', 'A#:7', 'D#:maj', 'G:(3,5,b7,b9)/B', 'A#:7', 'D#:maj/A#', 'A#:maj', 'G:(3,5,b7,b9)/B', 'A#:7', 'D#:maj/A#', 'A#:7', 'D#:maj', 'C:min/G', 'G:7', 'C:min', 'G:7/D', 'C:min', 'G:7/D', 'C:min', 'G:7', 'C:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(39.148775, 43.514126)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
+          <t>[('0:00:00.360000', '0:02:07.800000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:00.360000', '0:02:27.720000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_291</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2392241379310345</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D', 'G', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_100</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_135</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>[['A:min', 'E:7/A', 'E:(3,5,b7,b9)/A', 'A:min', 'E:(3,5,b7,b9)/A', 'A:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(5.20815, 11.03585)]</t>
+          <t>[['B:min', 'F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(54.18, 61.46)]</t>
+          <t>[('0:00:14.460000', '0:00:46.680000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
+          <t>[('0:00:13.600000', '0:00:44.080000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>jaah_49</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jaah_32</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.06163882453359347</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['Bb', 'Bb', 'Bb', 'Bb', 'Bb', 'Bb']]</t>
-        </is>
+          <t>schubert-winterreise_1</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_86</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['G', 'G', 'G', 'G', 'G', 'G']]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(201.95, 215.51)]</t>
+          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#', 'B:7', 'E:min', 'G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(17.22, 25.74)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+          <t>[('0:00:07.020000', '0:00:24.780000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:05.880000', '0:00:21.160000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_89</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_167</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1230650154798762</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['F#', 'B', 'F#']]</t>
-        </is>
+          <t>schubert-winterreise_78</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_4</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['G/5', 'C/9', 'G']]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(15.880484, 21.522933)]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(0.727609, 8.204625)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:00:53.120000', '0:01:14.300000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:58.080000', '0:01:19.120000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_120</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_203</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2125874125874126</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:7/C', 'A#:min/C#', 'A#:maj/D']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7', 'G:min', 'G:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(2.6, 5.12)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(48.42, 58.56)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
